--- a/bioinfo-m2/Results/Bacteria/Total_Proteobacteria.xlsx
+++ b/bioinfo-m2/Results/Bacteria/Total_Proteobacteria.xlsx
@@ -35,7 +35,7 @@
     <t>Modification date</t>
   </si>
   <si>
-    <t>14-Dec-2017</t>
+    <t>19-Dec-2017</t>
   </si>
   <si>
     <t>BioProject</t>
@@ -5533,31 +5533,31 @@
         <v>18</v>
       </c>
       <c r="B2" t="n" s="38">
-        <v>2.7852609E7</v>
+        <v>2.7882699E7</v>
       </c>
       <c r="C2" t="n" s="39">
-        <v>2.3683107421592138</v>
+        <v>2.3680288530754985</v>
       </c>
       <c r="D2" t="n" s="38">
-        <v>2.405288E7</v>
+        <v>2.4076763E7</v>
       </c>
       <c r="E2" t="n" s="39">
-        <v>2.0452193216034633</v>
+        <v>2.044797366017565</v>
       </c>
       <c r="F2" t="n" s="38">
-        <v>1.8808109E7</v>
+        <v>1.8821216E7</v>
       </c>
       <c r="G2" t="n" s="39">
-        <v>1.5992558034474038</v>
+        <v>1.5984529524192124</v>
       </c>
       <c r="H2" t="n" s="38">
-        <v>2315908.0</v>
+        <v>2319045.0</v>
       </c>
       <c r="I2" t="n" s="38">
-        <v>1776300.0</v>
+        <v>1778128.0</v>
       </c>
       <c r="J2" t="n" s="38">
-        <v>825323.0</v>
+        <v>825713.0</v>
       </c>
       <c r="M2" t="s" s="35">
         <v>0</v>
@@ -5571,31 +5571,31 @@
         <v>19</v>
       </c>
       <c r="B3" t="n" s="40">
-        <v>2.250301E7</v>
+        <v>2.2536696E7</v>
       </c>
       <c r="C3" t="n" s="41">
-        <v>1.9134336863708605</v>
+        <v>1.9140021696246543</v>
       </c>
       <c r="D3" t="n" s="40">
-        <v>1.6518143E7</v>
+        <v>1.653779E7</v>
       </c>
       <c r="E3" t="n" s="41">
-        <v>1.4045397150199475</v>
+        <v>1.4045255764552582</v>
       </c>
       <c r="F3" t="n" s="40">
-        <v>1.0747346E7</v>
+        <v>1.075677E7</v>
       </c>
       <c r="G3" t="n" s="41">
-        <v>0.913848141892268</v>
+        <v>0.9135536601351588</v>
       </c>
       <c r="H3" t="n" s="42">
-        <v>2198824.0</v>
+        <v>2201984.0</v>
       </c>
       <c r="I3" t="n" s="42">
-        <v>1448139.0</v>
+        <v>1449608.0</v>
       </c>
       <c r="J3" t="n" s="42">
-        <v>714834.0</v>
+        <v>715234.0</v>
       </c>
     </row>
     <row r="4">
@@ -5603,37 +5603,37 @@
         <v>20</v>
       </c>
       <c r="B4" t="n" s="38">
-        <v>2.2943477E7</v>
+        <v>2.2966232E7</v>
       </c>
       <c r="C4" t="n" s="39">
-        <v>1.9508866491316075</v>
+        <v>1.950481910751388</v>
       </c>
       <c r="D4" t="n" s="38">
-        <v>2.8512087E7</v>
+        <v>2.8539282E7</v>
       </c>
       <c r="E4" t="n" s="39">
-        <v>2.424386236976151</v>
+        <v>2.423791298756918</v>
       </c>
       <c r="F4" t="n" s="38">
-        <v>6813388.0</v>
+        <v>6817798.0</v>
       </c>
       <c r="G4" t="n" s="39">
-        <v>0.579343213086382</v>
+        <v>0.5790236583065516</v>
       </c>
       <c r="H4" t="n" s="38">
-        <v>1723139.0</v>
+        <v>1725257.0</v>
       </c>
       <c r="I4" t="n" s="38">
-        <v>2183941.0</v>
+        <v>2186724.0</v>
       </c>
       <c r="J4" t="n" s="38">
-        <v>235152.0</v>
+        <v>235405.0</v>
       </c>
       <c r="M4" t="s" s="35">
         <v>2</v>
       </c>
       <c r="N4" t="n" s="33">
-        <v>2.941060957E9</v>
+        <v>2.944588732E9</v>
       </c>
     </row>
     <row r="5">
@@ -5641,31 +5641,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="n" s="40">
-        <v>1.8766625E7</v>
+        <v>1.8781705E7</v>
       </c>
       <c r="C5" t="n" s="41">
-        <v>1.5957284138650587</v>
+        <v>1.595097352302672</v>
       </c>
       <c r="D5" t="n" s="40">
-        <v>1.2386007E7</v>
+        <v>1.2395469E7</v>
       </c>
       <c r="E5" t="n" s="41">
-        <v>1.0531836866901487</v>
+        <v>1.0527254997589328</v>
       </c>
       <c r="F5" t="n" s="40">
-        <v>1.3811171E7</v>
+        <v>1.3821281E7</v>
       </c>
       <c r="G5" t="n" s="41">
-        <v>1.1743655555247199</v>
+        <v>1.1738172188590559</v>
       </c>
       <c r="H5" t="n" s="42">
-        <v>2128267.0</v>
+        <v>2130993.0</v>
       </c>
       <c r="I5" t="n" s="42">
-        <v>1344186.0</v>
+        <v>1345560.0</v>
       </c>
       <c r="J5" t="n" s="42">
-        <v>1300798.0</v>
+        <v>1302307.0</v>
       </c>
     </row>
     <row r="6">
@@ -5673,37 +5673,37 @@
         <v>22</v>
       </c>
       <c r="B6" t="n" s="38">
-        <v>7785569.0</v>
+        <v>7788223.0</v>
       </c>
       <c r="C6" t="n" s="39">
-        <v>0.6620078821528629</v>
+        <v>0.6614401560690455</v>
       </c>
       <c r="D6" t="n" s="38">
-        <v>2.015566E7</v>
+        <v>2.0177803E7</v>
       </c>
       <c r="E6" t="n" s="39">
-        <v>1.7138382294207621</v>
+        <v>1.7136655133591392</v>
       </c>
       <c r="F6" t="n" s="38">
-        <v>1.0603218E7</v>
+        <v>1.0614084E7</v>
       </c>
       <c r="G6" t="n" s="39">
-        <v>0.9015929204641452</v>
+        <v>0.9014355877444649</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>707134.0</v>
+        <v>707484.0</v>
       </c>
       <c r="I6" t="n" s="38">
-        <v>2585937.0</v>
+        <v>2589403.0</v>
       </c>
       <c r="J6" t="n" s="38">
-        <v>1086734.0</v>
+        <v>1088128.0</v>
       </c>
       <c r="M6" t="s" s="35">
         <v>3</v>
       </c>
       <c r="N6" t="n" s="33">
-        <v>2.250301E7</v>
+        <v>2.2536696E7</v>
       </c>
     </row>
     <row r="7">
@@ -5711,31 +5711,31 @@
         <v>23</v>
       </c>
       <c r="B7" t="n" s="40">
-        <v>2.7337779E7</v>
+        <v>2.737869E7</v>
       </c>
       <c r="C7" t="n" s="41">
-        <v>2.3245346844338557</v>
+        <v>2.325224250328479</v>
       </c>
       <c r="D7" t="n" s="40">
-        <v>2.0260218E7</v>
+        <v>2.028956E7</v>
       </c>
       <c r="E7" t="n" s="41">
-        <v>1.7227288089201074</v>
+        <v>1.7231568398814803</v>
       </c>
       <c r="F7" t="n" s="40">
-        <v>7495633.0</v>
+        <v>7501161.0</v>
       </c>
       <c r="G7" t="n" s="41">
-        <v>0.637354588691605</v>
+        <v>0.6370604825438405</v>
       </c>
       <c r="H7" t="n" s="42">
-        <v>2413250.0</v>
+        <v>2416417.0</v>
       </c>
       <c r="I7" t="n" s="42">
-        <v>1367837.0</v>
+        <v>1369430.0</v>
       </c>
       <c r="J7" t="n" s="42">
-        <v>567336.0</v>
+        <v>567503.0</v>
       </c>
     </row>
     <row r="8">
@@ -5743,31 +5743,31 @@
         <v>24</v>
       </c>
       <c r="B8" t="n" s="38">
-        <v>1.7489288E7</v>
+        <v>1.7511385E7</v>
       </c>
       <c r="C8" t="n" s="39">
-        <v>1.487116292880004</v>
+        <v>1.4872112967727225</v>
       </c>
       <c r="D8" t="n" s="38">
-        <v>3.0578394E7</v>
+        <v>3.0624717E7</v>
       </c>
       <c r="E8" t="n" s="39">
-        <v>2.6000845733402156</v>
+        <v>2.60090364542083</v>
       </c>
       <c r="F8" t="n" s="38">
-        <v>7920503.0</v>
+        <v>7928695.0</v>
       </c>
       <c r="G8" t="n" s="39">
-        <v>0.6734813366390301</v>
+        <v>0.6733701973125141</v>
       </c>
       <c r="H8" t="n" s="38">
-        <v>1104844.0</v>
+        <v>1105879.0</v>
       </c>
       <c r="I8" t="n" s="38">
-        <v>2677854.0</v>
+        <v>2681486.0</v>
       </c>
       <c r="J8" t="n" s="38">
-        <v>534491.0</v>
+        <v>534711.0</v>
       </c>
       <c r="M8" t="s" s="35">
         <v>4</v>
@@ -5781,31 +5781,31 @@
         <v>25</v>
       </c>
       <c r="B9" t="n" s="40">
-        <v>8332733.0</v>
+        <v>8336549.0</v>
       </c>
       <c r="C9" t="n" s="41">
-        <v>0.7085333038439801</v>
+        <v>0.7080085241058512</v>
       </c>
       <c r="D9" t="n" s="40">
-        <v>1.1639539E7</v>
+        <v>1.1656071E7</v>
       </c>
       <c r="E9" t="n" s="41">
-        <v>0.9897114215577117</v>
+        <v>0.9899297209892263</v>
       </c>
       <c r="F9" t="n" s="40">
-        <v>1.1997487E7</v>
+        <v>1.2008273E7</v>
       </c>
       <c r="G9" t="n" s="41">
-        <v>1.0201477836785604</v>
+        <v>1.0198416207701944</v>
       </c>
       <c r="H9" t="n" s="42">
-        <v>1030371.0</v>
+        <v>1030947.0</v>
       </c>
       <c r="I9" t="n" s="42">
-        <v>1775376.0</v>
+        <v>1778391.0</v>
       </c>
       <c r="J9" t="n" s="42">
-        <v>1826922.0</v>
+        <v>1828775.0</v>
       </c>
     </row>
     <row r="10">
@@ -5813,31 +5813,31 @@
         <v>26</v>
       </c>
       <c r="B10" t="n" s="38">
-        <v>3905229.0</v>
+        <v>3907152.0</v>
       </c>
       <c r="C10" t="n" s="39">
-        <v>0.3320620984300496</v>
+        <v>0.33182758488881015</v>
       </c>
       <c r="D10" t="n" s="38">
-        <v>1.8093061E7</v>
+        <v>1.8114418E7</v>
       </c>
       <c r="E10" t="n" s="39">
-        <v>1.538455184749189</v>
+        <v>1.538425834624911</v>
       </c>
       <c r="F10" t="n" s="38">
-        <v>1.9410262E7</v>
+        <v>1.9424789E7</v>
       </c>
       <c r="G10" t="n" s="39">
-        <v>1.6504569465188985</v>
+        <v>1.6497133515268219</v>
       </c>
       <c r="H10" t="n" s="38">
-        <v>249483.0</v>
+        <v>249729.0</v>
       </c>
       <c r="I10" t="n" s="38">
-        <v>2106241.0</v>
+        <v>2109446.0</v>
       </c>
       <c r="J10" t="n" s="38">
-        <v>1904879.0</v>
+        <v>1906588.0</v>
       </c>
       <c r="M10" t="s" s="35">
         <v>5</v>
@@ -5851,31 +5851,31 @@
         <v>27</v>
       </c>
       <c r="B11" t="n" s="40">
-        <v>1.97862E7</v>
+        <v>1.9820165E7</v>
       </c>
       <c r="C11" t="n" s="41">
-        <v>1.6824230005350895</v>
+        <v>1.683291943606935</v>
       </c>
       <c r="D11" t="n" s="40">
-        <v>2.6545608E7</v>
+        <v>2.6589646E7</v>
       </c>
       <c r="E11" t="n" s="41">
-        <v>2.257176287634224</v>
+        <v>2.2582121236205834</v>
       </c>
       <c r="F11" t="n" s="40">
-        <v>1.5353768E7</v>
+        <v>1.5363954E7</v>
       </c>
       <c r="G11" t="n" s="41">
-        <v>1.305532766679789</v>
+        <v>1.3048337382734978</v>
       </c>
       <c r="H11" t="n" s="42">
-        <v>1154790.0</v>
+        <v>1156468.0</v>
       </c>
       <c r="I11" t="n" s="42">
-        <v>2074843.0</v>
+        <v>2077729.0</v>
       </c>
       <c r="J11" t="n" s="42">
-        <v>1039099.0</v>
+        <v>1039427.0</v>
       </c>
     </row>
     <row r="12">
@@ -5883,31 +5883,31 @@
         <v>28</v>
       </c>
       <c r="B12" t="n" s="38">
-        <v>3131108.0</v>
+        <v>3132865.0</v>
       </c>
       <c r="C12" t="n" s="39">
-        <v>0.2662384953330818</v>
+        <v>0.26606874437766487</v>
       </c>
       <c r="D12" t="n" s="38">
-        <v>2.9065071E7</v>
+        <v>2.9104516E7</v>
       </c>
       <c r="E12" t="n" s="39">
-        <v>2.4714065339774898</v>
+        <v>2.4717956336579</v>
       </c>
       <c r="F12" t="n" s="38">
-        <v>1.2529875E7</v>
+        <v>1.2538829E7</v>
       </c>
       <c r="G12" t="n" s="39">
-        <v>1.0654168002865434</v>
+        <v>1.0649008137906522</v>
       </c>
       <c r="H12" t="n" s="38">
-        <v>195938.0</v>
+        <v>196065.0</v>
       </c>
       <c r="I12" t="n" s="38">
-        <v>2774868.0</v>
+        <v>2778972.0</v>
       </c>
       <c r="J12" t="n" s="38">
-        <v>1159373.0</v>
+        <v>1159903.0</v>
       </c>
       <c r="M12" t="s" s="35">
         <v>7</v>
@@ -5921,31 +5921,31 @@
         <v>29</v>
       </c>
       <c r="B13" t="n" s="40">
-        <v>8149870.0</v>
+        <v>8155026.0</v>
       </c>
       <c r="C13" t="n" s="41">
-        <v>0.6929844406389761</v>
+        <v>0.6925920932396419</v>
       </c>
       <c r="D13" t="n" s="40">
-        <v>1.0675034E7</v>
+        <v>1.0689316E7</v>
       </c>
       <c r="E13" t="n" s="41">
-        <v>0.9076994437079428</v>
+        <v>0.9078249099070925</v>
       </c>
       <c r="F13" t="n" s="40">
-        <v>1.0115257E7</v>
+        <v>1.0122083E7</v>
       </c>
       <c r="G13" t="n" s="41">
-        <v>0.8601015370876453</v>
+        <v>0.8596508034328025</v>
       </c>
       <c r="H13" t="n" s="42">
-        <v>1159628.0</v>
+        <v>1160605.0</v>
       </c>
       <c r="I13" t="n" s="42">
-        <v>2022278.0</v>
+        <v>2025609.0</v>
       </c>
       <c r="J13" t="n" s="42">
-        <v>1581694.0</v>
+        <v>1582994.0</v>
       </c>
     </row>
     <row r="14">
@@ -5953,31 +5953,31 @@
         <v>30</v>
       </c>
       <c r="B14" t="n" s="38">
-        <v>7060711.0</v>
+        <v>7064160.0</v>
       </c>
       <c r="C14" t="n" s="39">
-        <v>0.6003731179575215</v>
+        <v>0.5999467520250393</v>
       </c>
       <c r="D14" t="n" s="38">
-        <v>1.8471043E7</v>
+        <v>1.849445E7</v>
       </c>
       <c r="E14" t="n" s="39">
-        <v>1.5705950403348121</v>
+        <v>1.5707012876250666</v>
       </c>
       <c r="F14" t="n" s="38">
-        <v>4905018.0</v>
+        <v>4909234.0</v>
       </c>
       <c r="G14" t="n" s="39">
-        <v>0.4170742791055697</v>
+        <v>0.41693265628622406</v>
       </c>
       <c r="H14" t="n" s="38">
-        <v>992160.0</v>
+        <v>992590.0</v>
       </c>
       <c r="I14" t="n" s="38">
-        <v>3086004.0</v>
+        <v>3090125.0</v>
       </c>
       <c r="J14" t="n" s="38">
-        <v>953706.0</v>
+        <v>954177.0</v>
       </c>
     </row>
     <row r="15">
@@ -5985,31 +5985,31 @@
         <v>31</v>
       </c>
       <c r="B15" t="n" s="40">
-        <v>3.5338621E7</v>
+        <v>3.5383995E7</v>
       </c>
       <c r="C15" t="n" s="41">
-        <v>3.004847256046756</v>
+        <v>3.005100800933194</v>
       </c>
       <c r="D15" t="n" s="40">
-        <v>1.9411925E7</v>
+        <v>1.943539E7</v>
       </c>
       <c r="E15" t="n" s="41">
-        <v>1.6505983516118365</v>
+        <v>1.650613675913333</v>
       </c>
       <c r="F15" t="n" s="40">
-        <v>7024555.0</v>
+        <v>7029403.0</v>
       </c>
       <c r="G15" t="n" s="41">
-        <v>0.5972987688653589</v>
+        <v>0.5969949008127036</v>
       </c>
       <c r="H15" t="n" s="42">
-        <v>2691637.0</v>
+        <v>2695205.0</v>
       </c>
       <c r="I15" t="n" s="42">
-        <v>1139106.0</v>
+        <v>1140213.0</v>
       </c>
       <c r="J15" t="n" s="42">
-        <v>290793.0</v>
+        <v>290943.0</v>
       </c>
     </row>
     <row r="16">
@@ -6017,31 +6017,31 @@
         <v>32</v>
       </c>
       <c r="B16" t="n" s="38">
-        <v>2.8649277E7</v>
+        <v>2.86859E7</v>
       </c>
       <c r="C16" t="n" s="39">
-        <v>2.4360515194176204</v>
+        <v>2.4362433090296762</v>
       </c>
       <c r="D16" t="n" s="38">
-        <v>2.7737266E7</v>
+        <v>2.7760382E7</v>
       </c>
       <c r="E16" t="n" s="39">
-        <v>2.3585031127937612</v>
+        <v>2.357640684224928</v>
       </c>
       <c r="F16" t="n" s="38">
-        <v>4310283.0</v>
+        <v>4313342.0</v>
       </c>
       <c r="G16" t="n" s="39">
-        <v>0.3665038894793031</v>
+        <v>0.3663245910728505</v>
       </c>
       <c r="H16" t="n" s="38">
-        <v>2199564.0</v>
+        <v>2202966.0</v>
       </c>
       <c r="I16" t="n" s="38">
-        <v>1813640.0</v>
+        <v>1814997.0</v>
       </c>
       <c r="J16" t="n" s="38">
-        <v>88434.0</v>
+        <v>88495.0</v>
       </c>
     </row>
     <row r="17">
@@ -6049,31 +6049,31 @@
         <v>33</v>
       </c>
       <c r="B17" t="n" s="40">
-        <v>2.3992771E7</v>
+        <v>2.4019186E7</v>
       </c>
       <c r="C17" t="n" s="41">
-        <v>2.0401082459982853</v>
+        <v>2.039907452122446</v>
       </c>
       <c r="D17" t="n" s="40">
-        <v>1.4041585E7</v>
+        <v>1.4052214E7</v>
       </c>
       <c r="E17" t="n" s="41">
-        <v>1.1939576860624326</v>
+        <v>1.19342995459627</v>
       </c>
       <c r="F17" t="n" s="40">
-        <v>1.3451163E7</v>
+        <v>1.3459158E7</v>
       </c>
       <c r="G17" t="n" s="41">
-        <v>1.1437540313524868</v>
+        <v>1.1430627459021065</v>
       </c>
       <c r="H17" t="n" s="42">
-        <v>2434855.0</v>
+        <v>2438597.0</v>
       </c>
       <c r="I17" t="n" s="42">
-        <v>1259921.0</v>
+        <v>1260714.0</v>
       </c>
       <c r="J17" t="n" s="42">
-        <v>932953.0</v>
+        <v>933475.0</v>
       </c>
     </row>
     <row r="18">
@@ -6081,31 +6081,31 @@
         <v>34</v>
       </c>
       <c r="B18" t="n" s="38">
-        <v>1.6725812E7</v>
+        <v>1.673635E7</v>
       </c>
       <c r="C18" t="n" s="39">
-        <v>1.422197835432059</v>
+        <v>1.4213889299299942</v>
       </c>
       <c r="D18" t="n" s="38">
-        <v>1.0454378E7</v>
+        <v>1.0459677E7</v>
       </c>
       <c r="E18" t="n" s="39">
-        <v>0.8889370371010112</v>
+        <v>0.8883220713263867</v>
       </c>
       <c r="F18" t="n" s="38">
-        <v>3.2889212E7</v>
+        <v>3.2931295E7</v>
       </c>
       <c r="G18" t="n" s="39">
-        <v>2.796573709872268</v>
+        <v>2.7967972802468264</v>
       </c>
       <c r="H18" t="n" s="38">
-        <v>1002109.0</v>
+        <v>1002695.0</v>
       </c>
       <c r="I18" t="n" s="38">
-        <v>508341.0</v>
+        <v>508567.0</v>
       </c>
       <c r="J18" t="n" s="38">
-        <v>2623745.0</v>
+        <v>2627711.0</v>
       </c>
     </row>
     <row r="19">
@@ -6113,31 +6113,31 @@
         <v>35</v>
       </c>
       <c r="B19" t="n" s="40">
-        <v>1.3080653E7</v>
+        <v>1.309933E7</v>
       </c>
       <c r="C19" t="n" s="41">
-        <v>1.1122495208386813</v>
+        <v>1.1125031832806958</v>
       </c>
       <c r="D19" t="n" s="40">
-        <v>9536584.0</v>
+        <v>9542555.0</v>
       </c>
       <c r="E19" t="n" s="41">
-        <v>0.810896901281445</v>
+        <v>0.8104325041151814</v>
       </c>
       <c r="F19" t="n" s="40">
-        <v>2.1913017E7</v>
+        <v>2.1938912E7</v>
       </c>
       <c r="G19" t="n" s="41">
-        <v>1.8632665095832663</v>
+        <v>1.8632334201608063</v>
       </c>
       <c r="H19" t="n" s="42">
-        <v>1081330.0</v>
+        <v>1083073.0</v>
       </c>
       <c r="I19" t="n" s="42">
-        <v>992578.0</v>
+        <v>993056.0</v>
       </c>
       <c r="J19" t="n" s="42">
-        <v>2389039.0</v>
+        <v>2391982.0</v>
       </c>
     </row>
     <row r="20">
@@ -6145,31 +6145,31 @@
         <v>36</v>
       </c>
       <c r="B20" t="n" s="38">
-        <v>3.047974E7</v>
+        <v>3.054063E7</v>
       </c>
       <c r="C20" t="n" s="39">
-        <v>2.591696011681343</v>
+        <v>2.5937622835975516</v>
       </c>
       <c r="D20" t="n" s="38">
-        <v>1.3261524E7</v>
+        <v>1.3267943E7</v>
       </c>
       <c r="E20" t="n" s="39">
-        <v>1.127629004040599</v>
+        <v>1.1268231904293444</v>
       </c>
       <c r="F20" t="n" s="38">
-        <v>1.525564E7</v>
+        <v>1.528268E7</v>
       </c>
       <c r="G20" t="n" s="39">
-        <v>1.2971889308651046</v>
+        <v>1.2979312796196618</v>
       </c>
       <c r="H20" t="n" s="38">
-        <v>2539752.0</v>
+        <v>2543534.0</v>
       </c>
       <c r="I20" t="n" s="38">
-        <v>976030.0</v>
+        <v>976278.0</v>
       </c>
       <c r="J20" t="n" s="38">
-        <v>687163.0</v>
+        <v>687853.0</v>
       </c>
     </row>
     <row r="21">
@@ -6177,31 +6177,31 @@
         <v>37</v>
       </c>
       <c r="B21" t="n" s="40">
-        <v>1.2878885E7</v>
+        <v>1.2891979E7</v>
       </c>
       <c r="C21" t="n" s="41">
-        <v>1.0950931631766765</v>
+        <v>1.094893225553359</v>
       </c>
       <c r="D21" t="n" s="40">
-        <v>7032734.0</v>
+        <v>7037062.0</v>
       </c>
       <c r="E21" t="n" s="41">
-        <v>0.5979942302334527</v>
+        <v>0.5976453662854222</v>
       </c>
       <c r="F21" t="n" s="40">
-        <v>2.8966573E7</v>
+        <v>2.8997833E7</v>
       </c>
       <c r="G21" t="n" s="41">
-        <v>2.463031237017654</v>
+        <v>2.462735233080013</v>
       </c>
       <c r="H21" t="n" s="42">
-        <v>958109.0</v>
+        <v>959147.0</v>
       </c>
       <c r="I21" t="n" s="42">
-        <v>443243.0</v>
+        <v>443544.0</v>
       </c>
       <c r="J21" t="n" s="42">
-        <v>2801604.0</v>
+        <v>2805219.0</v>
       </c>
     </row>
     <row r="22">
@@ -6209,31 +6209,31 @@
         <v>38</v>
       </c>
       <c r="B22" t="n" s="38">
-        <v>7454729.0</v>
+        <v>7458641.0</v>
       </c>
       <c r="C22" t="n" s="39">
-        <v>0.633876516580038</v>
+        <v>0.6334493333207051</v>
       </c>
       <c r="D22" t="n" s="38">
-        <v>2.4791592E7</v>
+        <v>2.4826078E7</v>
       </c>
       <c r="E22" t="n" s="39">
-        <v>2.1080320931094256</v>
+        <v>2.10843537825025</v>
       </c>
       <c r="F22" t="n" s="38">
-        <v>1.977198E7</v>
+        <v>1.979816E7</v>
       </c>
       <c r="G22" t="n" s="39">
-        <v>1.681213872199805</v>
+        <v>1.6814230974485367</v>
       </c>
       <c r="H22" t="n" s="38">
-        <v>639824.0</v>
+        <v>640067.0</v>
       </c>
       <c r="I22" t="n" s="38">
-        <v>2218769.0</v>
+        <v>2221820.0</v>
       </c>
       <c r="J22" t="n" s="38">
-        <v>1495915.0</v>
+        <v>1497673.0</v>
       </c>
     </row>
     <row r="23">
@@ -6241,31 +6241,31 @@
         <v>39</v>
       </c>
       <c r="B23" t="n" s="40">
-        <v>1.2976995E7</v>
+        <v>1.2985422E7</v>
       </c>
       <c r="C23" t="n" s="41">
-        <v>1.1034354684491643</v>
+        <v>1.1028291760909283</v>
       </c>
       <c r="D23" t="n" s="40">
-        <v>1.6744574E7</v>
+        <v>1.6761458E7</v>
       </c>
       <c r="E23" t="n" s="41">
-        <v>1.4237931705816098</v>
+        <v>1.4235213084505607</v>
       </c>
       <c r="F23" t="n" s="40">
-        <v>1.2847794E7</v>
+        <v>1.2863066E7</v>
       </c>
       <c r="G23" t="n" s="41">
-        <v>1.0924494916526024</v>
+        <v>1.0924376950385772</v>
       </c>
       <c r="H23" t="n" s="42">
-        <v>1392721.0</v>
+        <v>1393670.0</v>
       </c>
       <c r="I23" t="n" s="42">
-        <v>2046856.0</v>
+        <v>2049435.0</v>
       </c>
       <c r="J23" t="n" s="42">
-        <v>1459652.0</v>
+        <v>1461792.0</v>
       </c>
     </row>
     <row r="24">
@@ -6273,31 +6273,31 @@
         <v>40</v>
       </c>
       <c r="B24" t="n" s="38">
-        <v>2.5876836E7</v>
+        <v>2.5924731E7</v>
       </c>
       <c r="C24" t="n" s="39">
-        <v>2.200310522863128</v>
+        <v>2.201742055753671</v>
       </c>
       <c r="D24" t="n" s="38">
-        <v>4.2162024E7</v>
+        <v>4.221786E7</v>
       </c>
       <c r="E24" t="n" s="39">
-        <v>3.585042045805281</v>
+        <v>3.585489001445017</v>
       </c>
       <c r="F24" t="n" s="38">
-        <v>2.0016933E7</v>
+        <v>2.0045462E7</v>
       </c>
       <c r="G24" t="n" s="39">
-        <v>1.70204225568173</v>
+        <v>1.702426023722757</v>
       </c>
       <c r="H24" t="n" s="38">
-        <v>1010101.0</v>
+        <v>1011825.0</v>
       </c>
       <c r="I24" t="n" s="38">
-        <v>2716170.0</v>
+        <v>2718920.0</v>
       </c>
       <c r="J24" t="n" s="38">
-        <v>645476.0</v>
+        <v>645932.0</v>
       </c>
     </row>
     <row r="25">
@@ -6305,31 +6305,31 @@
         <v>41</v>
       </c>
       <c r="B25" t="n" s="40">
-        <v>8348309.0</v>
+        <v>8353064.0</v>
       </c>
       <c r="C25" t="n" s="41">
-        <v>0.7098577330247391</v>
+        <v>0.7094111141674713</v>
       </c>
       <c r="D25" t="n" s="40">
-        <v>1.5562727E7</v>
+        <v>1.5582744E7</v>
       </c>
       <c r="E25" t="n" s="41">
-        <v>1.3233005759493208</v>
+        <v>1.323415190261499</v>
       </c>
       <c r="F25" t="n" s="40">
-        <v>2.549971E7</v>
+        <v>2.5529942E7</v>
       </c>
       <c r="G25" t="n" s="41">
-        <v>2.1682434530619634</v>
+        <v>2.1682133165567654</v>
       </c>
       <c r="H25" t="n" s="42">
-        <v>948011.0</v>
+        <v>948374.0</v>
       </c>
       <c r="I25" t="n" s="42">
-        <v>1050338.0</v>
+        <v>1051816.0</v>
       </c>
       <c r="J25" t="n" s="42">
-        <v>2364018.0</v>
+        <v>2367302.0</v>
       </c>
     </row>
     <row r="26">
@@ -6337,31 +6337,31 @@
         <v>42</v>
       </c>
       <c r="B26" t="n" s="38">
-        <v>4181651.0</v>
+        <v>4183675.0</v>
       </c>
       <c r="C26" t="n" s="39">
-        <v>0.35556629482217694</v>
+        <v>0.3553121995790521</v>
       </c>
       <c r="D26" t="n" s="38">
-        <v>1.9186117E7</v>
+        <v>1.9208055E7</v>
       </c>
       <c r="E26" t="n" s="39">
-        <v>1.6313978698161997</v>
+        <v>1.6313065120224228</v>
       </c>
       <c r="F26" t="n" s="38">
-        <v>5.1957367E7</v>
+        <v>5.2016601E7</v>
       </c>
       <c r="G26" t="n" s="39">
-        <v>4.417941256433415</v>
+        <v>4.417678934414342</v>
       </c>
       <c r="H26" t="n" s="38">
-        <v>227761.0</v>
+        <v>227832.0</v>
       </c>
       <c r="I26" t="n" s="38">
-        <v>679363.0</v>
+        <v>680034.0</v>
       </c>
       <c r="J26" t="n" s="38">
-        <v>3186420.0</v>
+        <v>3190342.0</v>
       </c>
     </row>
     <row r="27">
@@ -6369,31 +6369,31 @@
         <v>43</v>
       </c>
       <c r="B27" t="n" s="40">
-        <v>3.4073605E7</v>
+        <v>3.4122053E7</v>
       </c>
       <c r="C27" t="n" s="41">
-        <v>2.8972827911952486</v>
+        <v>2.897926274288274</v>
       </c>
       <c r="D27" t="n" s="40">
-        <v>3.6789325E7</v>
+        <v>3.6856772E7</v>
       </c>
       <c r="E27" t="n" s="41">
-        <v>3.1282007941980057</v>
+        <v>3.130181175331167</v>
       </c>
       <c r="F27" t="n" s="40">
-        <v>4.3531498E7</v>
+        <v>4.3589502E7</v>
       </c>
       <c r="G27" t="n" s="41">
-        <v>3.7014885871439307</v>
+        <v>3.7019801572004254</v>
       </c>
       <c r="H27" t="n" s="42">
-        <v>1155237.0</v>
+        <v>1156161.0</v>
       </c>
       <c r="I27" t="n" s="42">
-        <v>1254575.0</v>
+        <v>1256927.0</v>
       </c>
       <c r="J27" t="n" s="42">
-        <v>1959871.0</v>
+        <v>1961509.0</v>
       </c>
     </row>
     <row r="28">
@@ -6401,31 +6401,31 @@
         <v>44</v>
       </c>
       <c r="B28" t="n" s="38">
-        <v>1.1764333E7</v>
+        <v>1.1779097E7</v>
       </c>
       <c r="C28" t="n" s="39">
-        <v>1.0003226706064818</v>
+        <v>1.0003781039695994</v>
       </c>
       <c r="D28" t="n" s="38">
-        <v>3.4957447E7</v>
+        <v>3.5008889E7</v>
       </c>
       <c r="E28" t="n" s="39">
-        <v>2.9724359843116095</v>
+        <v>2.9732437044963773</v>
       </c>
       <c r="F28" t="n" s="38">
-        <v>3.8905548E7</v>
+        <v>3.8970008E7</v>
       </c>
       <c r="G28" t="n" s="39">
-        <v>3.308143494133383</v>
+        <v>3.3096546122949935</v>
       </c>
       <c r="H28" t="n" s="38">
-        <v>332266.0</v>
+        <v>332451.0</v>
       </c>
       <c r="I28" t="n" s="38">
-        <v>1808927.0</v>
+        <v>1810588.0</v>
       </c>
       <c r="J28" t="n" s="38">
-        <v>2180160.0</v>
+        <v>2183150.0</v>
       </c>
     </row>
     <row r="29">
@@ -6433,31 +6433,31 @@
         <v>45</v>
       </c>
       <c r="B29" t="n" s="40">
-        <v>1.4345146E7</v>
+        <v>1.4362769E7</v>
       </c>
       <c r="C29" t="n" s="41">
-        <v>1.2197695149363665</v>
+        <v>1.2198048475170329</v>
       </c>
       <c r="D29" t="n" s="40">
-        <v>1.0709569E7</v>
+        <v>1.0723048E7</v>
       </c>
       <c r="E29" t="n" s="41">
-        <v>0.9106359589722927</v>
+        <v>0.9106897096623795</v>
       </c>
       <c r="F29" t="n" s="40">
-        <v>2.7298461E7</v>
+        <v>2.7332872E7</v>
       </c>
       <c r="G29" t="n" s="41">
-        <v>2.32119147009583</v>
+        <v>2.321333007734273</v>
       </c>
       <c r="H29" t="n" s="42">
-        <v>1233994.0</v>
+        <v>1235026.0</v>
       </c>
       <c r="I29" t="n" s="42">
-        <v>527460.0</v>
+        <v>528042.0</v>
       </c>
       <c r="J29" t="n" s="42">
-        <v>2542056.0</v>
+        <v>2545504.0</v>
       </c>
     </row>
     <row r="30">
@@ -6465,31 +6465,31 @@
         <v>46</v>
       </c>
       <c r="B30" t="n" s="38">
-        <v>5358714.0</v>
+        <v>5361487.0</v>
       </c>
       <c r="C30" t="n" s="39">
-        <v>0.4556521053506682</v>
+        <v>0.4553417124859109</v>
       </c>
       <c r="D30" t="n" s="38">
-        <v>8413740.0</v>
+        <v>8418424.0</v>
       </c>
       <c r="E30" t="n" s="39">
-        <v>0.7154213389393671</v>
+        <v>0.7149620246384057</v>
       </c>
       <c r="F30" t="n" s="38">
-        <v>1.3476991E7</v>
+        <v>1.3497087E7</v>
       </c>
       <c r="G30" t="n" s="39">
-        <v>1.1459501893443105</v>
+        <v>1.1462839895259143</v>
       </c>
       <c r="H30" t="n" s="38">
-        <v>777540.0</v>
+        <v>778071.0</v>
       </c>
       <c r="I30" t="n" s="38">
-        <v>1282007.0</v>
+        <v>1282825.0</v>
       </c>
       <c r="J30" t="n" s="38">
-        <v>2485581.0</v>
+        <v>2489453.0</v>
       </c>
     </row>
     <row r="31">
@@ -6497,31 +6497,31 @@
         <v>47</v>
       </c>
       <c r="B31" t="n" s="40">
-        <v>2.1263587E7</v>
+        <v>2.1275243E7</v>
       </c>
       <c r="C31" t="n" s="41">
-        <v>1.8080453974324995</v>
+        <v>1.8068691728943647</v>
       </c>
       <c r="D31" t="n" s="40">
-        <v>7431927.0</v>
+        <v>7435968.0</v>
       </c>
       <c r="E31" t="n" s="41">
-        <v>0.631937659737481</v>
+        <v>0.6315237550907862</v>
       </c>
       <c r="F31" t="n" s="40">
-        <v>1.2141828E7</v>
+        <v>1.2156251E7</v>
       </c>
       <c r="G31" t="n" s="41">
-        <v>1.0324211165226755</v>
+        <v>1.0324091334640124</v>
       </c>
       <c r="H31" t="n" s="42">
-        <v>2390657.0</v>
+        <v>2392824.0</v>
       </c>
       <c r="I31" t="n" s="42">
-        <v>999722.0</v>
+        <v>1000519.0</v>
       </c>
       <c r="J31" t="n" s="42">
-        <v>1114078.0</v>
+        <v>1116778.0</v>
       </c>
     </row>
     <row r="32">
@@ -6529,31 +6529,31 @@
         <v>48</v>
       </c>
       <c r="B32" t="n" s="38">
-        <v>5.5135155E7</v>
+        <v>5.5255261E7</v>
       </c>
       <c r="C32" t="n" s="39">
-        <v>4.688148957862916</v>
+        <v>4.692732663083202</v>
       </c>
       <c r="D32" t="n" s="38">
-        <v>1.5524444E7</v>
+        <v>1.5532399E7</v>
       </c>
       <c r="E32" t="n" s="39">
-        <v>1.3200453677875976</v>
+        <v>1.3191394774760157</v>
       </c>
       <c r="F32" t="n" s="38">
-        <v>1.3309135E7</v>
+        <v>1.3330125E7</v>
       </c>
       <c r="G32" t="n" s="39">
-        <v>1.1316773731806298</v>
+        <v>1.1321041989193024</v>
       </c>
       <c r="H32" t="n" s="38">
-        <v>2816427.0</v>
+        <v>2820612.0</v>
       </c>
       <c r="I32" t="n" s="38">
-        <v>942167.0</v>
+        <v>942388.0</v>
       </c>
       <c r="J32" t="n" s="38">
-        <v>241845.0</v>
+        <v>241961.0</v>
       </c>
     </row>
     <row r="33">
@@ -6561,31 +6561,31 @@
         <v>49</v>
       </c>
       <c r="B33" t="n" s="40">
-        <v>1.3193042E7</v>
+        <v>1.319878E7</v>
       </c>
       <c r="C33" t="n" s="41">
-        <v>1.1218059712236539</v>
+        <v>1.1209492978206963</v>
       </c>
       <c r="D33" t="n" s="40">
-        <v>9177721.0</v>
+        <v>9183171.0</v>
       </c>
       <c r="E33" t="n" s="41">
-        <v>0.7803827365989378</v>
+        <v>0.7799106496371165</v>
       </c>
       <c r="F33" t="n" s="40">
-        <v>1.9975487E7</v>
+        <v>1.9996456E7</v>
       </c>
       <c r="G33" t="n" s="41">
-        <v>1.6985180972440221</v>
+        <v>1.698264029865067</v>
       </c>
       <c r="H33" t="n" s="42">
-        <v>1282568.0</v>
+        <v>1283441.0</v>
       </c>
       <c r="I33" t="n" s="42">
-        <v>720115.0</v>
+        <v>720878.0</v>
       </c>
       <c r="J33" t="n" s="42">
-        <v>2378526.0</v>
+        <v>2382197.0</v>
       </c>
     </row>
     <row r="34">
@@ -6593,31 +6593,31 @@
         <v>50</v>
       </c>
       <c r="B34" t="n" s="38">
-        <v>3.6879562E7</v>
+        <v>3.6919121E7</v>
       </c>
       <c r="C34" t="n" s="39">
-        <v>3.135873657319741</v>
+        <v>3.1354763668390047</v>
       </c>
       <c r="D34" t="n" s="38">
-        <v>5096138.0</v>
+        <v>5098450.0</v>
       </c>
       <c r="E34" t="n" s="39">
-        <v>0.43332523602818585</v>
+        <v>0.4330024401856784</v>
       </c>
       <c r="F34" t="n" s="38">
-        <v>2.1585343E7</v>
+        <v>2.1612983E7</v>
       </c>
       <c r="G34" t="n" s="39">
-        <v>1.8354043493767922</v>
+        <v>1.8355528403125625</v>
       </c>
       <c r="H34" t="n" s="38">
-        <v>2797686.0</v>
+        <v>2800913.0</v>
       </c>
       <c r="I34" t="n" s="38">
-        <v>133072.0</v>
+        <v>133147.0</v>
       </c>
       <c r="J34" t="n" s="38">
-        <v>1147551.0</v>
+        <v>1149095.0</v>
       </c>
     </row>
     <row r="35">
@@ -6625,31 +6625,31 @@
         <v>51</v>
       </c>
       <c r="B35" t="n" s="40">
-        <v>3.1759762E7</v>
+        <v>3.1800197E7</v>
       </c>
       <c r="C35" t="n" s="41">
-        <v>2.700536438544052</v>
+        <v>2.7007351056468716</v>
       </c>
       <c r="D35" t="n" s="40">
-        <v>4078922.0</v>
+        <v>4082128.0</v>
       </c>
       <c r="E35" t="n" s="41">
-        <v>0.34683123541602673</v>
+        <v>0.3466879904971674</v>
       </c>
       <c r="F35" t="n" s="40">
-        <v>1.7643888E7</v>
+        <v>1.766639E7</v>
       </c>
       <c r="G35" t="n" s="41">
-        <v>1.500261949746038</v>
+        <v>1.5003756002847666</v>
       </c>
       <c r="H35" t="n" s="42">
-        <v>2829774.0</v>
+        <v>2833302.0</v>
       </c>
       <c r="I35" t="n" s="42">
-        <v>296845.0</v>
+        <v>296969.0</v>
       </c>
       <c r="J35" t="n" s="42">
-        <v>1141270.0</v>
+        <v>1142481.0</v>
       </c>
     </row>
     <row r="36">
@@ -6657,31 +6657,31 @@
         <v>52</v>
       </c>
       <c r="B36" t="n" s="38">
-        <v>3.0947692E7</v>
+        <v>3.0983165E7</v>
       </c>
       <c r="C36" t="n" s="39">
-        <v>2.6314860273461194</v>
+        <v>2.631346007056165</v>
       </c>
       <c r="D36" t="n" s="38">
-        <v>4809518.0</v>
+        <v>4811595.0</v>
       </c>
       <c r="E36" t="n" s="39">
-        <v>0.40895390245158353</v>
+        <v>0.40864034680838474</v>
       </c>
       <c r="F36" t="n" s="38">
-        <v>7793115.0</v>
+        <v>7801950.0</v>
       </c>
       <c r="G36" t="n" s="39">
-        <v>0.6626495194537109</v>
+        <v>0.6626059661674929</v>
       </c>
       <c r="H36" t="n" s="38">
-        <v>3300371.0</v>
+        <v>3304483.0</v>
       </c>
       <c r="I36" t="n" s="38">
-        <v>394601.0</v>
+        <v>394778.0</v>
       </c>
       <c r="J36" t="n" s="38">
-        <v>493456.0</v>
+        <v>494013.0</v>
       </c>
     </row>
     <row r="37">
@@ -6689,31 +6689,31 @@
         <v>53</v>
       </c>
       <c r="B37" t="n" s="40">
-        <v>3.1389165E7</v>
+        <v>3.1422571E7</v>
       </c>
       <c r="C37" t="n" s="41">
-        <v>2.6690245304096294</v>
+        <v>2.66866399001809</v>
       </c>
       <c r="D37" t="n" s="40">
-        <v>3172068.0</v>
+        <v>3173582.0</v>
       </c>
       <c r="E37" t="n" s="41">
-        <v>0.26972132913148256</v>
+        <v>0.26952676796464525</v>
       </c>
       <c r="F37" t="n" s="40">
-        <v>2.9857109E7</v>
+        <v>2.9899205E7</v>
       </c>
       <c r="G37" t="n" s="41">
-        <v>2.538753621770892</v>
+        <v>2.5392871803414443</v>
       </c>
       <c r="H37" t="n" s="42">
-        <v>2052378.0</v>
+        <v>2054375.0</v>
       </c>
       <c r="I37" t="n" s="42">
-        <v>79885.0</v>
+        <v>79913.0</v>
       </c>
       <c r="J37" t="n" s="42">
-        <v>1923112.0</v>
+        <v>1925929.0</v>
       </c>
     </row>
     <row r="38">
@@ -6721,31 +6721,31 @@
         <v>54</v>
       </c>
       <c r="B38" t="n" s="38">
-        <v>1.7955869E7</v>
+        <v>1.7966493E7</v>
       </c>
       <c r="C38" t="n" s="39">
-        <v>1.5267897322474753</v>
+        <v>1.5258628231283842</v>
       </c>
       <c r="D38" t="n" s="38">
-        <v>2.6223666E7</v>
+        <v>2.6263702E7</v>
       </c>
       <c r="E38" t="n" s="39">
-        <v>2.229801520087233</v>
+        <v>2.230530269848578</v>
       </c>
       <c r="F38" t="n" s="38">
-        <v>2.8285025E7</v>
+        <v>2.8335424E7</v>
       </c>
       <c r="G38" t="n" s="39">
-        <v>2.405079127407487</v>
+        <v>2.406477995409553</v>
       </c>
       <c r="H38" t="n" s="38">
-        <v>1056096.0</v>
+        <v>1056443.0</v>
       </c>
       <c r="I38" t="n" s="38">
-        <v>1462684.0</v>
+        <v>1464380.0</v>
       </c>
       <c r="J38" t="n" s="38">
-        <v>1701939.0</v>
+        <v>1704737.0</v>
       </c>
     </row>
     <row r="39">
@@ -6753,31 +6753,31 @@
         <v>55</v>
       </c>
       <c r="B39" t="n" s="40">
-        <v>4.7522059E7</v>
+        <v>4.7584439E7</v>
       </c>
       <c r="C39" t="n" s="41">
-        <v>4.040806475947153</v>
+        <v>4.041263168583896</v>
       </c>
       <c r="D39" t="n" s="40">
-        <v>2.3959447E7</v>
+        <v>2.3994998E7</v>
       </c>
       <c r="E39" t="n" s="41">
-        <v>2.0372747022117155</v>
+        <v>2.0378532075925966</v>
       </c>
       <c r="F39" t="n" s="40">
-        <v>2.3044501E7</v>
+        <v>2.3079205E7</v>
       </c>
       <c r="G39" t="n" s="41">
-        <v>1.9594767321796946</v>
+        <v>1.960076510026677</v>
       </c>
       <c r="H39" t="n" s="42">
-        <v>2850745.0</v>
+        <v>2854186.0</v>
       </c>
       <c r="I39" t="n" s="42">
-        <v>634066.0</v>
+        <v>634739.0</v>
       </c>
       <c r="J39" t="n" s="42">
-        <v>757459.0</v>
+        <v>758200.0</v>
       </c>
     </row>
     <row r="40">
@@ -6785,31 +6785,31 @@
         <v>56</v>
       </c>
       <c r="B40" t="n" s="38">
-        <v>4.3590719E7</v>
+        <v>4.365829E7</v>
       </c>
       <c r="C40" t="n" s="39">
-        <v>3.7065241560007447</v>
+        <v>3.7078222017150315</v>
       </c>
       <c r="D40" t="n" s="38">
-        <v>4.2785272E7</v>
+        <v>4.2852505E7</v>
       </c>
       <c r="E40" t="n" s="39">
-        <v>3.6380368993010253</v>
+        <v>3.63938829116084</v>
       </c>
       <c r="F40" t="n" s="38">
-        <v>2.6972403E7</v>
+        <v>2.7011466E7</v>
       </c>
       <c r="G40" t="n" s="39">
-        <v>2.293466718566559</v>
+        <v>2.2940365583643043</v>
       </c>
       <c r="H40" t="n" s="38">
-        <v>1891739.0</v>
+        <v>1894010.0</v>
       </c>
       <c r="I40" t="n" s="38">
-        <v>1803965.0</v>
+        <v>1806158.0</v>
       </c>
       <c r="J40" t="n" s="38">
-        <v>592781.0</v>
+        <v>593189.0</v>
       </c>
     </row>
     <row r="41">
@@ -6817,31 +6817,31 @@
         <v>57</v>
       </c>
       <c r="B41" t="n" s="40">
-        <v>1.5950433E7</v>
+        <v>1.595917E7</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>1.3562672644415759</v>
+        <v>1.3553843919893445</v>
       </c>
       <c r="D41" t="n" s="40">
-        <v>1.6764978E7</v>
+        <v>1.6789301E7</v>
       </c>
       <c r="E41" t="n" s="41">
-        <v>1.4255281251915357</v>
+        <v>1.4258859657370087</v>
       </c>
       <c r="F41" t="n" s="40">
-        <v>4.243269E7</v>
+        <v>4.2513177E7</v>
       </c>
       <c r="G41" t="n" s="41">
-        <v>3.6080568088149967</v>
+        <v>3.610569757680405</v>
       </c>
       <c r="H41" t="n" s="42">
-        <v>997609.0</v>
+        <v>997927.0</v>
       </c>
       <c r="I41" t="n" s="42">
-        <v>413067.0</v>
+        <v>413340.0</v>
       </c>
       <c r="J41" t="n" s="42">
-        <v>2665649.0</v>
+        <v>2669682.0</v>
       </c>
     </row>
     <row r="42">
@@ -6849,31 +6849,31 @@
         <v>58</v>
       </c>
       <c r="B42" t="n" s="38">
-        <v>9058576.0</v>
+        <v>9063737.0</v>
       </c>
       <c r="C42" t="n" s="39">
-        <v>0.7702518227095222</v>
+        <v>0.7697673289335427</v>
       </c>
       <c r="D42" t="n" s="38">
-        <v>8546455.0</v>
+        <v>8554111.0</v>
       </c>
       <c r="E42" t="n" s="39">
-        <v>0.7267061115847468</v>
+        <v>0.7264856842018954</v>
       </c>
       <c r="F42" t="n" s="38">
-        <v>3.1092991E7</v>
+        <v>3.113967E7</v>
       </c>
       <c r="G42" t="n" s="39">
-        <v>2.6438408190471407</v>
+        <v>2.644637702944378</v>
       </c>
       <c r="H42" t="n" s="38">
-        <v>658168.0</v>
+        <v>658421.0</v>
       </c>
       <c r="I42" t="n" s="38">
-        <v>430978.0</v>
+        <v>431245.0</v>
       </c>
       <c r="J42" t="n" s="38">
-        <v>3071536.0</v>
+        <v>3075693.0</v>
       </c>
     </row>
     <row r="43">
@@ -6881,31 +6881,31 @@
         <v>59</v>
       </c>
       <c r="B43" t="n" s="40">
-        <v>4.7977272E7</v>
+        <v>4.8050704E7</v>
       </c>
       <c r="C43" t="n" s="41">
-        <v>4.0795132928873725</v>
+        <v>4.080862239433502</v>
       </c>
       <c r="D43" t="n" s="40">
-        <v>1.6656044E7</v>
+        <v>1.6680884E7</v>
       </c>
       <c r="E43" t="n" s="41">
-        <v>1.4162654538781814</v>
+        <v>1.4166782995722702</v>
       </c>
       <c r="F43" t="n" s="40">
-        <v>4.0343158E7</v>
+        <v>4.0404513E7</v>
       </c>
       <c r="G43" t="n" s="41">
-        <v>3.4303836478667553</v>
+        <v>3.4314846126791414</v>
       </c>
       <c r="H43" t="n" s="42">
-        <v>2240321.0</v>
+        <v>2243085.0</v>
       </c>
       <c r="I43" t="n" s="42">
-        <v>319806.0</v>
+        <v>320018.0</v>
       </c>
       <c r="J43" t="n" s="42">
-        <v>1625522.0</v>
+        <v>1627319.0</v>
       </c>
     </row>
     <row r="44">
@@ -6913,31 +6913,31 @@
         <v>60</v>
       </c>
       <c r="B44" t="n" s="38">
-        <v>1.3628155E7</v>
+        <v>1.3643938E7</v>
       </c>
       <c r="C44" t="n" s="39">
-        <v>1.1588036827110453</v>
+        <v>1.1587557880811041</v>
       </c>
       <c r="D44" t="n" s="38">
-        <v>1.3308144E7</v>
+        <v>1.3323335E7</v>
       </c>
       <c r="E44" t="n" s="39">
-        <v>1.1315931083296968</v>
+        <v>1.131527536096511</v>
       </c>
       <c r="F44" t="n" s="38">
-        <v>2.1642575E7</v>
+        <v>2.1668971E7</v>
       </c>
       <c r="G44" t="n" s="39">
-        <v>1.8402707933208857</v>
+        <v>1.8403078032171936</v>
       </c>
       <c r="H44" t="n" s="38">
-        <v>1080974.0</v>
+        <v>1081973.0</v>
       </c>
       <c r="I44" t="n" s="38">
-        <v>1082013.0</v>
+        <v>1083125.0</v>
       </c>
       <c r="J44" t="n" s="38">
-        <v>2536189.0</v>
+        <v>2539465.0</v>
       </c>
     </row>
     <row r="45">
@@ -6945,31 +6945,31 @@
         <v>61</v>
       </c>
       <c r="B45" t="n" s="40">
-        <v>1.9340854E7</v>
+        <v>1.9355613E7</v>
       </c>
       <c r="C45" t="n" s="41">
-        <v>1.644555175808952</v>
+        <v>1.6438383548509135</v>
       </c>
       <c r="D45" t="n" s="40">
-        <v>5621537.0</v>
+        <v>5626590.0</v>
       </c>
       <c r="E45" t="n" s="41">
-        <v>0.47799997711329234</v>
+        <v>0.47785644655225346</v>
       </c>
       <c r="F45" t="n" s="40">
-        <v>2.9557455E7</v>
+        <v>2.9603984E7</v>
       </c>
       <c r="G45" t="n" s="41">
-        <v>2.5132740055837344</v>
+        <v>2.5142145772181315</v>
       </c>
       <c r="H45" t="n" s="42">
-        <v>1349971.0</v>
+        <v>1350601.0</v>
       </c>
       <c r="I45" t="n" s="42">
-        <v>237532.0</v>
+        <v>237659.0</v>
       </c>
       <c r="J45" t="n" s="42">
-        <v>2564984.0</v>
+        <v>2568917.0</v>
       </c>
     </row>
     <row r="46">
@@ -6977,31 +6977,31 @@
         <v>62</v>
       </c>
       <c r="B46" t="n" s="38">
-        <v>9639275.0</v>
+        <v>9648257.0</v>
       </c>
       <c r="C46" t="n" s="39">
-        <v>0.8196287295429581</v>
+        <v>0.8194095900790541</v>
       </c>
       <c r="D46" t="n" s="38">
-        <v>1.0579275E7</v>
+        <v>1.05898E7</v>
       </c>
       <c r="E46" t="n" s="39">
-        <v>0.8995570442523505</v>
+        <v>0.8993731901025405</v>
       </c>
       <c r="F46" t="n" s="38">
-        <v>6301859.0</v>
+        <v>6311741.0</v>
       </c>
       <c r="G46" t="n" s="39">
-        <v>0.5358478397938492</v>
+        <v>0.5360451225019357</v>
       </c>
       <c r="H46" t="n" s="38">
-        <v>1688494.0</v>
+        <v>1690228.0</v>
       </c>
       <c r="I46" t="n" s="38">
-        <v>1816118.0</v>
+        <v>1818177.0</v>
       </c>
       <c r="J46" t="n" s="38">
-        <v>1476339.0</v>
+        <v>1478385.0</v>
       </c>
     </row>
     <row r="47">
@@ -7009,31 +7009,31 @@
         <v>63</v>
       </c>
       <c r="B47" t="n" s="40">
-        <v>2.4483891E7</v>
+        <v>2.4508937E7</v>
       </c>
       <c r="C47" t="n" s="41">
-        <v>2.0818682395302823</v>
+        <v>2.081501147869855</v>
       </c>
       <c r="D47" t="n" s="40">
-        <v>9507473.0</v>
+        <v>9518639.0</v>
       </c>
       <c r="E47" t="n" s="41">
-        <v>0.8084215893989926</v>
+        <v>0.8084013600695439</v>
       </c>
       <c r="F47" t="n" s="40">
-        <v>1.0429619E7</v>
+        <v>1.0442764E7</v>
       </c>
       <c r="G47" t="n" s="41">
-        <v>0.886831776309639</v>
+        <v>0.8868856798209566</v>
       </c>
       <c r="H47" t="n" s="42">
-        <v>2744373.0</v>
+        <v>2747684.0</v>
       </c>
       <c r="I47" t="n" s="42">
-        <v>933871.0</v>
+        <v>934779.0</v>
       </c>
       <c r="J47" t="n" s="42">
-        <v>720264.0</v>
+        <v>721230.0</v>
       </c>
     </row>
     <row r="48">
@@ -7041,31 +7041,31 @@
         <v>64</v>
       </c>
       <c r="B48" t="n" s="38">
-        <v>3.4190567E7</v>
+        <v>3.4242294E7</v>
       </c>
       <c r="C48" t="n" s="39">
-        <v>2.90722808432827</v>
+        <v>2.908138132090227</v>
       </c>
       <c r="D48" t="n" s="38">
-        <v>1.6118732E7</v>
+        <v>1.6128988E7</v>
       </c>
       <c r="E48" t="n" s="39">
-        <v>1.3705777489493163</v>
+        <v>1.3698067376801821</v>
       </c>
       <c r="F48" t="n" s="38">
-        <v>6360150.0</v>
+        <v>6369801.0</v>
       </c>
       <c r="G48" t="n" s="39">
-        <v>0.5408043306371738</v>
+        <v>0.5409760567421814</v>
       </c>
       <c r="H48" t="n" s="38">
-        <v>2797649.0</v>
+        <v>2801661.0</v>
       </c>
       <c r="I48" t="n" s="38">
-        <v>1104843.0</v>
+        <v>1105333.0</v>
       </c>
       <c r="J48" t="n" s="38">
-        <v>224006.0</v>
+        <v>224202.0</v>
       </c>
     </row>
     <row r="49">
@@ -7073,31 +7073,31 @@
         <v>65</v>
       </c>
       <c r="B49" t="n" s="40">
-        <v>1.4804461E7</v>
+        <v>1.481629E7</v>
       </c>
       <c r="C49" t="n" s="41">
-        <v>1.2588251254371587</v>
+        <v>1.258321592738708</v>
       </c>
       <c r="D49" t="n" s="40">
-        <v>9777333.0</v>
+        <v>9786445.0</v>
       </c>
       <c r="E49" t="n" s="41">
-        <v>0.8313678181303509</v>
+        <v>0.8311456551977427</v>
       </c>
       <c r="F49" t="n" s="40">
-        <v>2.0796836E7</v>
+        <v>2.0824184E7</v>
       </c>
       <c r="G49" t="n" s="41">
-        <v>1.7683575029442826</v>
+        <v>1.7685615210261085</v>
       </c>
       <c r="H49" t="n" s="42">
-        <v>1353651.0</v>
+        <v>1354582.0</v>
       </c>
       <c r="I49" t="n" s="42">
-        <v>582677.0</v>
+        <v>583209.0</v>
       </c>
       <c r="J49" t="n" s="42">
-        <v>2405193.0</v>
+        <v>2408753.0</v>
       </c>
     </row>
     <row r="50">
@@ -7108,28 +7108,28 @@
         <v>11134.0</v>
       </c>
       <c r="C50" t="n" s="39">
-        <v>9.467253786961462E-4</v>
+        <v>9.455911441766309E-4</v>
       </c>
       <c r="D50" t="n" s="38">
-        <v>1.0576618E7</v>
+        <v>1.0582175E7</v>
       </c>
       <c r="E50" t="n" s="39">
-        <v>0.8993311192181134</v>
+        <v>0.8987256121903483</v>
       </c>
       <c r="F50" t="n" s="38">
-        <v>1.8783057E7</v>
+        <v>1.8801838E7</v>
       </c>
       <c r="G50" t="n" s="39">
-        <v>1.5971256288302764</v>
+        <v>1.5968072127756114</v>
       </c>
       <c r="H50" t="n" s="38">
-        <v>982111.0</v>
+        <v>982316.0</v>
       </c>
       <c r="I50" t="n" s="38">
-        <v>1809642.0</v>
+        <v>1810608.0</v>
       </c>
       <c r="J50" t="n" s="38">
-        <v>3139885.0</v>
+        <v>3143911.0</v>
       </c>
     </row>
     <row r="51">
@@ -7137,31 +7137,31 @@
         <v>67</v>
       </c>
       <c r="B51" t="n" s="40">
-        <v>1.5290386E7</v>
+        <v>1.5311928E7</v>
       </c>
       <c r="C51" t="n" s="41">
-        <v>1.300143387485203</v>
+        <v>1.3004152610984543</v>
       </c>
       <c r="D51" t="n" s="40">
-        <v>7883192.0</v>
+        <v>7889740.0</v>
       </c>
       <c r="E51" t="n" s="41">
-        <v>0.6703087777559215</v>
+        <v>0.6700618173034069</v>
       </c>
       <c r="F51" t="n" s="40">
-        <v>1.0641118E7</v>
+        <v>1.0652775E7</v>
       </c>
       <c r="G51" t="n" s="41">
-        <v>0.9048155620891303</v>
+        <v>0.9047215466953664</v>
       </c>
       <c r="H51" t="n" s="42">
-        <v>2250950.0</v>
+        <v>2254201.0</v>
       </c>
       <c r="I51" t="n" s="42">
-        <v>944094.0</v>
+        <v>944824.0</v>
       </c>
       <c r="J51" t="n" s="42">
-        <v>1355730.0</v>
+        <v>1357122.0</v>
       </c>
     </row>
     <row r="52">
@@ -7169,31 +7169,31 @@
         <v>68</v>
       </c>
       <c r="B52" t="n" s="38">
-        <v>7865.0</v>
+        <v>7869.0</v>
       </c>
       <c r="C52" t="n" s="39">
-        <v>6.687619097759286E-4</v>
+        <v>6.683004053822443E-4</v>
       </c>
       <c r="D52" t="n" s="38">
-        <v>1.0826033E7</v>
+        <v>1.0830835E7</v>
       </c>
       <c r="E52" t="n" s="39">
-        <v>0.9205389071045424</v>
+        <v>0.919843871029127</v>
       </c>
       <c r="F52" t="n" s="38">
-        <v>5110264.0</v>
+        <v>5112780.0</v>
       </c>
       <c r="G52" t="n" s="39">
-        <v>0.4345263715319995</v>
+        <v>0.4342194620193457</v>
       </c>
       <c r="H52" t="n" s="38">
-        <v>1142992.0</v>
+        <v>1144496.0</v>
       </c>
       <c r="I52" t="n" s="38">
-        <v>3209096.0</v>
+        <v>3212822.0</v>
       </c>
       <c r="J52" t="n" s="38">
-        <v>1917562.0</v>
+        <v>1920138.0</v>
       </c>
     </row>
     <row r="53">
@@ -7201,31 +7201,31 @@
         <v>69</v>
       </c>
       <c r="B53" t="n" s="40">
-        <v>1.6627144E7</v>
+        <v>1.6646181E7</v>
       </c>
       <c r="C53" t="n" s="41">
-        <v>1.4138080833514777</v>
+        <v>1.4137310344854763</v>
       </c>
       <c r="D53" t="n" s="40">
-        <v>7100210.0</v>
+        <v>7105024.0</v>
       </c>
       <c r="E53" t="n" s="41">
-        <v>0.6037317227476346</v>
+        <v>0.6034172600648844</v>
       </c>
       <c r="F53" t="n" s="40">
-        <v>1.9208821E7</v>
+        <v>1.923322E7</v>
       </c>
       <c r="G53" t="n" s="41">
-        <v>1.6333283937067975</v>
+        <v>1.6334437314532837</v>
       </c>
       <c r="H53" t="n" s="42">
-        <v>2055456.0</v>
+        <v>2057310.0</v>
       </c>
       <c r="I53" t="n" s="42">
-        <v>560119.0</v>
+        <v>560377.0</v>
       </c>
       <c r="J53" t="n" s="42">
-        <v>2068751.0</v>
+        <v>2071766.0</v>
       </c>
     </row>
     <row r="54">
@@ -7233,31 +7233,31 @@
         <v>70</v>
       </c>
       <c r="B54" t="n" s="38">
-        <v>7089053.0</v>
+        <v>7093880.0</v>
       </c>
       <c r="C54" t="n" s="39">
-        <v>0.6027830416761317</v>
+        <v>0.6024708196381999</v>
       </c>
       <c r="D54" t="n" s="38">
-        <v>2.7853524E7</v>
+        <v>2.7883137E7</v>
       </c>
       <c r="E54" t="n" s="39">
-        <v>2.3683885447208723</v>
+        <v>2.36806605164934</v>
       </c>
       <c r="F54" t="n" s="38">
-        <v>1.4504867E7</v>
+        <v>1.4520621E7</v>
       </c>
       <c r="G54" t="n" s="39">
-        <v>1.233350611057323</v>
+        <v>1.2332109417590456</v>
       </c>
       <c r="H54" t="n" s="38">
-        <v>377951.0</v>
+        <v>378200.0</v>
       </c>
       <c r="I54" t="n" s="38">
-        <v>2688895.0</v>
+        <v>2692373.0</v>
       </c>
       <c r="J54" t="n" s="38">
-        <v>1105064.0</v>
+        <v>1106340.0</v>
       </c>
     </row>
     <row r="55">
@@ -7265,31 +7265,31 @@
         <v>71</v>
       </c>
       <c r="B55" t="n" s="40">
-        <v>1.1424084E7</v>
+        <v>1.1439589E7</v>
       </c>
       <c r="C55" t="n" s="41">
-        <v>0.9713912566154648</v>
+        <v>0.9715442834040238</v>
       </c>
       <c r="D55" t="n" s="40">
-        <v>1.7172178E7</v>
+        <v>1.7190614E7</v>
       </c>
       <c r="E55" t="n" s="41">
-        <v>1.4601523908826681</v>
+        <v>1.4599687768419982</v>
       </c>
       <c r="F55" t="n" s="40">
-        <v>1.1268941E7</v>
+        <v>1.1278426E7</v>
       </c>
       <c r="G55" t="n" s="41">
-        <v>0.9581994283931675</v>
+        <v>0.9578569917236808</v>
       </c>
       <c r="H55" t="n" s="42">
-        <v>1086075.0</v>
+        <v>1087905.0</v>
       </c>
       <c r="I55" t="n" s="42">
-        <v>2116577.0</v>
+        <v>2119163.0</v>
       </c>
       <c r="J55" t="n" s="42">
-        <v>1361030.0</v>
+        <v>1362034.0</v>
       </c>
     </row>
     <row r="56">
@@ -7297,31 +7297,31 @@
         <v>72</v>
       </c>
       <c r="B56" t="n" s="38">
-        <v>1.4685615E7</v>
+        <v>1.4702358E7</v>
       </c>
       <c r="C56" t="n" s="39">
-        <v>1.2487196355542307</v>
+        <v>1.2486455472709217</v>
       </c>
       <c r="D56" t="n" s="38">
-        <v>4.6167184E7</v>
+        <v>4.6213901E7</v>
       </c>
       <c r="E56" t="n" s="39">
-        <v>3.9256012893600376</v>
+        <v>3.9248657736173476</v>
       </c>
       <c r="F56" t="n" s="38">
-        <v>9454896.0</v>
+        <v>9461971.0</v>
       </c>
       <c r="G56" t="n" s="39">
-        <v>0.8039509606729547</v>
+        <v>0.803588645954383</v>
       </c>
       <c r="H56" t="n" s="38">
-        <v>435050.0</v>
+        <v>435534.0</v>
       </c>
       <c r="I56" t="n" s="38">
-        <v>3145742.0</v>
+        <v>3149786.0</v>
       </c>
       <c r="J56" t="n" s="38">
-        <v>601379.0</v>
+        <v>601655.0</v>
       </c>
     </row>
     <row r="57">
@@ -7329,31 +7329,31 @@
         <v>73</v>
       </c>
       <c r="B57" t="n" s="40">
-        <v>7916357.0</v>
+        <v>7921179.0</v>
       </c>
       <c r="C57" t="n" s="41">
-        <v>0.6731288017530885</v>
+        <v>0.6727318765796569</v>
       </c>
       <c r="D57" t="n" s="40">
-        <v>1.4936197E7</v>
+        <v>1.4951803E7</v>
       </c>
       <c r="E57" t="n" s="41">
-        <v>1.27002665359307</v>
+        <v>1.269830474786562</v>
       </c>
       <c r="F57" t="n" s="40">
-        <v>1.5011791E7</v>
+        <v>1.5030547E7</v>
       </c>
       <c r="G57" t="n" s="41">
-        <v>1.2764544206379018</v>
+        <v>1.2765180649659267</v>
       </c>
       <c r="H57" t="n" s="42">
-        <v>845875.0</v>
+        <v>846379.0</v>
       </c>
       <c r="I57" t="n" s="42">
-        <v>1783496.0</v>
+        <v>1785423.0</v>
       </c>
       <c r="J57" t="n" s="42">
-        <v>1836333.0</v>
+        <v>1839198.0</v>
       </c>
     </row>
     <row r="58">
@@ -7361,31 +7361,31 @@
         <v>74</v>
       </c>
       <c r="B58" t="n" s="38">
-        <v>11190.0</v>
+        <v>11191.0</v>
       </c>
       <c r="C58" t="n" s="39">
-        <v>9.514870655298971E-4</v>
+        <v>9.504320544710505E-4</v>
       </c>
       <c r="D58" t="n" s="38">
-        <v>3.1053822E7</v>
+        <v>3.1103944E7</v>
       </c>
       <c r="E58" t="n" s="39">
-        <v>2.6405102741972977</v>
+        <v>2.6416035562570372</v>
       </c>
       <c r="F58" t="n" s="38">
-        <v>2.8515561E7</v>
+        <v>2.8543994E7</v>
       </c>
       <c r="G58" t="n" s="39">
-        <v>2.4246816316200874</v>
+        <v>2.4241914806745903</v>
       </c>
       <c r="H58" t="n" s="38">
-        <v>20757.0</v>
+        <v>20764.0</v>
       </c>
       <c r="I58" t="n" s="38">
-        <v>2293532.0</v>
+        <v>2297094.0</v>
       </c>
       <c r="J58" t="n" s="38">
-        <v>1667065.0</v>
+        <v>1668216.0</v>
       </c>
     </row>
     <row r="59">
@@ -7393,31 +7393,31 @@
         <v>75</v>
       </c>
       <c r="B59" t="n" s="40">
-        <v>7896286.0</v>
+        <v>7907584.0</v>
       </c>
       <c r="C59" t="n" s="41">
-        <v>0.6714221621737989</v>
+        <v>0.6715772770103126</v>
       </c>
       <c r="D59" t="n" s="40">
-        <v>4.0743642E7</v>
+        <v>4.081197E7</v>
       </c>
       <c r="E59" t="n" s="41">
-        <v>3.464436851258326</v>
+        <v>3.466089222956919</v>
       </c>
       <c r="F59" t="n" s="40">
-        <v>2.5790656E7</v>
+        <v>2.5810423E7</v>
       </c>
       <c r="G59" t="n" s="41">
-        <v>2.192982626946473</v>
+        <v>2.1920340772635916</v>
       </c>
       <c r="H59" t="n" s="42">
-        <v>190848.0</v>
+        <v>190976.0</v>
       </c>
       <c r="I59" t="n" s="42">
-        <v>2474678.0</v>
+        <v>2478637.0</v>
       </c>
       <c r="J59" t="n" s="42">
-        <v>1382533.0</v>
+        <v>1383098.0</v>
       </c>
     </row>
     <row r="60">
@@ -7425,31 +7425,31 @@
         <v>76</v>
       </c>
       <c r="B60" t="n" s="38">
-        <v>1.5608584E7</v>
+        <v>1.562902E7</v>
       </c>
       <c r="C60" t="n" s="39">
-        <v>1.3271998022553086</v>
+        <v>1.3273453299945615</v>
       </c>
       <c r="D60" t="n" s="38">
-        <v>4.5305517E7</v>
+        <v>4.5380398E7</v>
       </c>
       <c r="E60" t="n" s="39">
-        <v>3.8523336391997205</v>
+        <v>3.854077821808056</v>
       </c>
       <c r="F60" t="n" s="38">
-        <v>1.6926859E7</v>
+        <v>1.6936184E7</v>
       </c>
       <c r="G60" t="n" s="39">
-        <v>1.4392928863760794</v>
+        <v>1.4383604819962232</v>
       </c>
       <c r="H60" t="n" s="38">
-        <v>452274.0</v>
+        <v>452542.0</v>
       </c>
       <c r="I60" t="n" s="38">
-        <v>2909693.0</v>
+        <v>2913790.0</v>
       </c>
       <c r="J60" t="n" s="38">
-        <v>697560.0</v>
+        <v>697768.0</v>
       </c>
     </row>
     <row r="61">
@@ -7457,31 +7457,31 @@
         <v>77</v>
       </c>
       <c r="B61" t="n" s="40">
-        <v>4146943.0</v>
+        <v>4150464.0</v>
       </c>
       <c r="C61" t="n" s="41">
-        <v>0.35261506934671566</v>
+        <v>0.35249164744242106</v>
       </c>
       <c r="D61" t="n" s="40">
-        <v>1.6882324E7</v>
+        <v>1.6909536E7</v>
       </c>
       <c r="E61" t="n" s="41">
-        <v>1.4355060698914168</v>
+        <v>1.4360973139694566</v>
       </c>
       <c r="F61" t="n" s="40">
-        <v>1.5817088E7</v>
+        <v>1.5826611E7</v>
       </c>
       <c r="G61" t="n" s="41">
-        <v>1.3449289228193164</v>
+        <v>1.3441263879942924</v>
       </c>
       <c r="H61" t="n" s="42">
-        <v>330665.0</v>
+        <v>330913.0</v>
       </c>
       <c r="I61" t="n" s="42">
-        <v>2158801.0</v>
+        <v>2162618.0</v>
       </c>
       <c r="J61" t="n" s="42">
-        <v>1864970.0</v>
+        <v>1865881.0</v>
       </c>
     </row>
     <row r="62">
@@ -7489,31 +7489,31 @@
         <v>78</v>
       </c>
       <c r="B62" t="n" s="38">
-        <v>1.4327353E7</v>
+        <v>1.433387E7</v>
       </c>
       <c r="C62" t="n" s="39">
-        <v>1.2182565739750641</v>
+        <v>1.217350505997762</v>
       </c>
       <c r="D62" t="n" s="38">
-        <v>1.6279202E7</v>
+        <v>1.6297939E7</v>
       </c>
       <c r="E62" t="n" s="39">
-        <v>1.3842225326316742</v>
+        <v>1.3841554505775944</v>
       </c>
       <c r="F62" t="n" s="38">
-        <v>9311192.0</v>
+        <v>9320414.0</v>
       </c>
       <c r="G62" t="n" s="39">
-        <v>0.7917317920165732</v>
+        <v>0.7915664575588187</v>
       </c>
       <c r="H62" t="n" s="38">
-        <v>1551228.0</v>
+        <v>1551933.0</v>
       </c>
       <c r="I62" t="n" s="38">
-        <v>2170146.0</v>
+        <v>2173601.0</v>
       </c>
       <c r="J62" t="n" s="38">
-        <v>1673199.0</v>
+        <v>1674378.0</v>
       </c>
     </row>
     <row r="63">
@@ -7521,31 +7521,31 @@
         <v>79</v>
       </c>
       <c r="B63" t="n" s="40">
-        <v>2.5042984E7</v>
+        <v>2.507128E7</v>
       </c>
       <c r="C63" t="n" s="41">
-        <v>2.12940798554711</v>
+        <v>2.1292599551978335</v>
       </c>
       <c r="D63" t="n" s="40">
-        <v>1.388917E7</v>
+        <v>1.3901568E7</v>
       </c>
       <c r="E63" t="n" s="41">
-        <v>1.1809978200130367</v>
+        <v>1.180635853329373</v>
       </c>
       <c r="F63" t="n" s="40">
-        <v>1.1519107E7</v>
+        <v>1.1528588E7</v>
       </c>
       <c r="G63" t="n" s="41">
-        <v>0.9794710739012419</v>
+        <v>0.9791028127951299</v>
       </c>
       <c r="H63" t="n" s="42">
-        <v>2299585.0</v>
+        <v>2303062.0</v>
       </c>
       <c r="I63" t="n" s="42">
-        <v>1174109.0</v>
+        <v>1175190.0</v>
       </c>
       <c r="J63" t="n" s="42">
-        <v>809516.0</v>
+        <v>810180.0</v>
       </c>
     </row>
     <row r="64">
@@ -7553,31 +7553,31 @@
         <v>80</v>
       </c>
       <c r="B64" t="n" s="38">
-        <v>1.6010306E7</v>
+        <v>1.6022393E7</v>
       </c>
       <c r="C64" t="n" s="39">
-        <v>1.361358272937954</v>
+        <v>1.3607538107883637</v>
       </c>
       <c r="D64" t="n" s="38">
-        <v>2.7669722E7</v>
+        <v>2.7695443E7</v>
       </c>
       <c r="E64" t="n" s="39">
-        <v>2.3527598382312815</v>
+        <v>2.352125528547572</v>
       </c>
       <c r="F64" t="n" s="38">
-        <v>5332011.0</v>
+        <v>5335145.0</v>
       </c>
       <c r="G64" t="n" s="39">
-        <v>0.45338154600206726</v>
+        <v>0.45310453250388283</v>
       </c>
       <c r="H64" t="n" s="38">
-        <v>1354276.0</v>
+        <v>1355244.0</v>
       </c>
       <c r="I64" t="n" s="38">
-        <v>2663640.0</v>
+        <v>2667463.0</v>
       </c>
       <c r="J64" t="n" s="38">
-        <v>371932.0</v>
+        <v>372108.0</v>
       </c>
     </row>
     <row r="65">
@@ -7585,31 +7585,31 @@
         <v>81</v>
       </c>
       <c r="B65" t="n" s="40">
-        <v>2.0678157E7</v>
+        <v>2.070222E7</v>
       </c>
       <c r="C65" t="n" s="41">
-        <v>1.758266213091734</v>
+        <v>1.7582033318480628</v>
       </c>
       <c r="D65" t="n" s="40">
-        <v>1.4830337E7</v>
+        <v>1.4841526E7</v>
       </c>
       <c r="E65" t="n" s="41">
-        <v>1.26102536487484</v>
+        <v>1.2604648420753741</v>
       </c>
       <c r="F65" t="n" s="40">
-        <v>2.1664666E7</v>
+        <v>2.1679209E7</v>
       </c>
       <c r="G65" t="n" s="41">
-        <v>1.8421491937466787</v>
+        <v>1.8411772986486719</v>
       </c>
       <c r="H65" t="n" s="42">
-        <v>1949261.0</v>
+        <v>1952732.0</v>
       </c>
       <c r="I65" t="n" s="42">
-        <v>974349.0</v>
+        <v>975042.0</v>
       </c>
       <c r="J65" t="n" s="42">
-        <v>2034710.0</v>
+        <v>2035893.0</v>
       </c>
     </row>
     <row r="67">
@@ -7617,31 +7617,31 @@
         <v>82</v>
       </c>
       <c r="B67" t="n" s="40">
-        <v>1.176053822E9</v>
+        <v>1.177464496E9</v>
       </c>
       <c r="C67" t="n" s="41">
-        <v>99.99999999999996</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="D67" t="n" s="40">
-        <v>1.176053822E9</v>
+        <v>1.177464496E9</v>
       </c>
       <c r="E67" t="n" s="41">
-        <v>99.99999999999999</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="F67" t="n" s="40">
-        <v>1.176053822E9</v>
+        <v>1.177464496E9</v>
       </c>
       <c r="G67" t="n" s="41">
-        <v>100.0</v>
+        <v>100.00000000000001</v>
       </c>
       <c r="H67" t="n" s="40">
-        <v>2.84192282E8</v>
+        <v>2.84400008E8</v>
       </c>
       <c r="I67" t="n" s="40">
-        <v>2.90122787E8</v>
+        <v>2.90347163E8</v>
       </c>
       <c r="J67" t="n" s="40">
-        <v>2.86938781E8</v>
+        <v>2.87156727E8</v>
       </c>
     </row>
     <row r="68"/>
@@ -7650,16 +7650,16 @@
         <v>83</v>
       </c>
       <c r="B71" t="n" s="47">
-        <v>1.11665287E8</v>
+        <v>1.11774447E8</v>
       </c>
       <c r="C71" t="n" s="48">
-        <v>6.326619580492518</v>
+        <v>6.325217249750854</v>
       </c>
       <c r="D71" t="n" s="47">
-        <v>1.12049565E8</v>
+        <v>1.12159254E8</v>
       </c>
       <c r="E71" t="n" s="48">
-        <v>6.348391617125106</v>
+        <v>6.346993138064799</v>
       </c>
     </row>
     <row r="72">
@@ -7667,16 +7667,16 @@
         <v>84</v>
       </c>
       <c r="B72" t="n" s="45">
-        <v>9.0699799E7</v>
+        <v>9.0808826E7</v>
       </c>
       <c r="C72" t="n" s="46">
-        <v>5.138778036724481</v>
+        <v>5.138791271719053</v>
       </c>
       <c r="D72" t="n" s="45">
-        <v>9.0896222E7</v>
+        <v>9.1006385E7</v>
       </c>
       <c r="E72" t="n" s="46">
-        <v>5.149906773606329</v>
+        <v>5.149970961068297</v>
       </c>
     </row>
     <row r="73">
@@ -7684,16 +7684,16 @@
         <v>85</v>
       </c>
       <c r="B73" t="n" s="47">
-        <v>8.8197767E7</v>
+        <v>8.8298645E7</v>
       </c>
       <c r="C73" t="n" s="48">
-        <v>4.997020422809792</v>
+        <v>4.996742345624193</v>
       </c>
       <c r="D73" t="n" s="47">
-        <v>8.8562576E7</v>
+        <v>8.8664114E7</v>
       </c>
       <c r="E73" t="n" s="48">
-        <v>5.017689404411388</v>
+        <v>5.017423913595173</v>
       </c>
     </row>
     <row r="74">
@@ -7701,16 +7701,16 @@
         <v>86</v>
       </c>
       <c r="B74" t="n" s="45">
-        <v>1.03760969E8</v>
+        <v>1.03869258E8</v>
       </c>
       <c r="C74" t="n" s="46">
-        <v>5.878784676980923</v>
+        <v>5.877869585169336</v>
       </c>
       <c r="D74" t="n" s="45">
-        <v>1.00633249E8</v>
+        <v>1.00737556E8</v>
       </c>
       <c r="E74" t="n" s="46">
-        <v>5.701577461328506</v>
+        <v>5.7006493345383555</v>
       </c>
     </row>
     <row r="75">
@@ -7718,16 +7718,16 @@
         <v>87</v>
       </c>
       <c r="B75" t="n" s="47">
-        <v>1.06269965E8</v>
+        <v>1.06396367E8</v>
       </c>
       <c r="C75" t="n" s="48">
-        <v>6.020936850207124</v>
+        <v>6.020876451835388</v>
       </c>
       <c r="D75" t="n" s="47">
-        <v>1.06204787E8</v>
+        <v>1.06329879E8</v>
       </c>
       <c r="E75" t="n" s="48">
-        <v>6.017244060602621</v>
+        <v>6.01711395462973</v>
       </c>
     </row>
     <row r="76">
@@ -7735,16 +7735,16 @@
         <v>88</v>
       </c>
       <c r="B76" t="n" s="45">
-        <v>1.15994343E8</v>
+        <v>1.16140144E8</v>
       </c>
       <c r="C76" t="n" s="46">
-        <v>6.571890883602576</v>
+        <v>6.572268187713318</v>
       </c>
       <c r="D76" t="n" s="45">
-        <v>1.1605986E8</v>
+        <v>1.16206484E8</v>
       </c>
       <c r="E76" t="n" s="46">
-        <v>6.575602879928301</v>
+        <v>6.57602230972967</v>
       </c>
     </row>
     <row r="77">
@@ -7752,16 +7752,16 @@
         <v>89</v>
       </c>
       <c r="B77" t="n" s="47">
-        <v>1.63845774E8</v>
+        <v>1.64072786E8</v>
       </c>
       <c r="C77" t="n" s="48">
-        <v>9.283009159053627</v>
+        <v>9.284734070049844</v>
       </c>
       <c r="D77" t="n" s="47">
-        <v>1.63854293E8</v>
+        <v>1.64080555E8</v>
       </c>
       <c r="E77" t="n" s="48">
-        <v>9.283491819991992</v>
+        <v>9.28517371089918</v>
       </c>
     </row>
     <row r="78">
@@ -7769,16 +7769,16 @@
         <v>90</v>
       </c>
       <c r="B78" t="n" s="45">
-        <v>9.7245158E7</v>
+        <v>9.7364453E7</v>
       </c>
       <c r="C78" t="n" s="46">
-        <v>5.509618407293294</v>
+        <v>5.509768414494203</v>
       </c>
       <c r="D78" t="n" s="45">
-        <v>9.7156613E7</v>
+        <v>9.7276199E7</v>
       </c>
       <c r="E78" t="n" s="46">
-        <v>5.504601713692223</v>
+        <v>5.504774198569703</v>
       </c>
     </row>
     <row r="79">
@@ -7786,16 +7786,16 @@
         <v>91</v>
       </c>
       <c r="B79" t="n" s="47">
-        <v>1.13248575E8</v>
+        <v>1.13379211E8</v>
       </c>
       <c r="C79" t="n" s="48">
-        <v>6.416323920412934</v>
+        <v>6.416029427372982</v>
       </c>
       <c r="D79" t="n" s="47">
-        <v>1.11763707E8</v>
+        <v>1.11892126E8</v>
       </c>
       <c r="E79" t="n" s="48">
-        <v>6.332195761916849</v>
+        <v>6.331876600440673</v>
       </c>
     </row>
     <row r="80">
@@ -7803,16 +7803,16 @@
         <v>92</v>
       </c>
       <c r="B80" t="n" s="45">
-        <v>1.78011158E8</v>
+        <v>1.78271992E8</v>
       </c>
       <c r="C80" t="n" s="46">
-        <v>10.085577246122577</v>
+        <v>10.08825459852954</v>
       </c>
       <c r="D80" t="n" s="45">
-        <v>1.77475904E8</v>
+        <v>1.77736178E8</v>
       </c>
       <c r="E80" t="n" s="46">
-        <v>10.055251363049022</v>
+        <v>10.057933357437127</v>
       </c>
     </row>
     <row r="81">
@@ -7820,16 +7820,16 @@
         <v>93</v>
       </c>
       <c r="B81" t="n" s="47">
-        <v>1.28746733E8</v>
+        <v>1.28918379E8</v>
       </c>
       <c r="C81" t="n" s="48">
-        <v>7.29440297701686</v>
+        <v>7.295377222136633</v>
       </c>
       <c r="D81" t="n" s="47">
-        <v>1.28026483E8</v>
+        <v>1.28197671E8</v>
       </c>
       <c r="E81" t="n" s="48">
-        <v>7.253595776540586</v>
+        <v>7.254592992860746</v>
       </c>
     </row>
     <row r="82">
@@ -7837,16 +7837,16 @@
         <v>94</v>
       </c>
       <c r="B82" t="n" s="45">
-        <v>8.7009902E7</v>
+        <v>8.7109271E7</v>
       </c>
       <c r="C82" t="n" s="46">
-        <v>4.929719561728571</v>
+        <v>4.9294367212787185</v>
       </c>
       <c r="D82" t="n" s="45">
-        <v>8.5979569E7</v>
+        <v>8.6078869E7</v>
       </c>
       <c r="E82" t="n" s="46">
-        <v>4.871343990345965</v>
+        <v>4.871127182027965</v>
       </c>
     </row>
     <row r="83">
@@ -7854,16 +7854,16 @@
         <v>95</v>
       </c>
       <c r="B83" t="n" s="47">
-        <v>6.0957785E7</v>
+        <v>6.1017284E7</v>
       </c>
       <c r="C83" t="n" s="48">
-        <v>3.4536849053587537</v>
+        <v>3.452914218307399</v>
       </c>
       <c r="D83" t="n" s="47">
-        <v>6.2132074E7</v>
+        <v>6.219363E7</v>
       </c>
       <c r="E83" t="n" s="48">
-        <v>3.520216591079106</v>
+        <v>3.519482599637663</v>
       </c>
     </row>
     <row r="84">
@@ -7871,16 +7871,16 @@
         <v>96</v>
       </c>
       <c r="B84" t="n" s="45">
-        <v>9.8570253E7</v>
+        <v>9.8672155E7</v>
       </c>
       <c r="C84" t="n" s="46">
-        <v>5.584694307765504</v>
+        <v>5.5837701158663755</v>
       </c>
       <c r="D84" t="n" s="45">
-        <v>9.8914434E7</v>
+        <v>9.9015871E7</v>
       </c>
       <c r="E84" t="n" s="46">
-        <v>5.604194568879179</v>
+        <v>5.603220700777033</v>
       </c>
     </row>
     <row r="85">
@@ -7888,16 +7888,16 @@
         <v>97</v>
       </c>
       <c r="B85" t="n" s="47">
-        <v>1.22455389E8</v>
+        <v>1.22615034E8</v>
       </c>
       <c r="C85" t="n" s="48">
-        <v>6.9379543329721445</v>
+        <v>6.938676494955843</v>
       </c>
       <c r="D85" t="n" s="47">
-        <v>1.2707187E8</v>
+        <v>1.27235854E8</v>
       </c>
       <c r="E85" t="n" s="48">
-        <v>7.199510272801249</v>
+        <v>7.200164618193829</v>
       </c>
     </row>
     <row r="86">
@@ -7905,16 +7905,16 @@
         <v>98</v>
       </c>
       <c r="B86" t="n" s="45">
-        <v>9.8328278E7</v>
+        <v>9.8415984E7</v>
       </c>
       <c r="C86" t="n" s="46">
-        <v>5.570984731458323</v>
+        <v>5.569273625196321</v>
       </c>
       <c r="D86" t="n" s="45">
-        <v>9.8225929E7</v>
+        <v>9.8313611E7</v>
       </c>
       <c r="E86" t="n" s="46">
-        <v>5.565185944701578</v>
+        <v>5.563480427530054</v>
       </c>
     </row>
     <row r="88">
@@ -7922,16 +7922,16 @@
         <v>82</v>
       </c>
       <c r="B88" t="n" s="47">
-        <v>1.765007135E9</v>
+        <v>1.767124236E9</v>
       </c>
       <c r="C88" t="n" s="48">
-        <v>100.00000000000001</v>
+        <v>100.0</v>
       </c>
       <c r="D88" t="n" s="47">
-        <v>1.765007135E9</v>
+        <v>1.767124236E9</v>
       </c>
       <c r="E88" t="n" s="48">
-        <v>100.00000000000001</v>
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>
